--- a/DATA_goal/Junction_Flooding_466.xlsx
+++ b/DATA_goal/Junction_Flooding_466.xlsx
@@ -446,36 +446,36 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44797.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2</v>
+        <v>20.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>4.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.7</v>
+        <v>107.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.05</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44797.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.5</v>
+        <v>25.03</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>9.57</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.33</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.32</v>
+        <v>23.25</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44797.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.72</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.66</v>
+        <v>36.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.07</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>141.45</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.67</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.35</v>
+        <v>33.45</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
@@ -967,16 +967,16 @@
         <v>44797.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -1006,64 +1006,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.05</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_466.xlsx
+++ b/DATA_goal/Junction_Flooding_466.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44797.54861111111</v>
+        <v>45147.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.17</v>
+        <v>19.697</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.53</v>
+        <v>13.276</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.85</v>
+        <v>4.055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.58</v>
+        <v>41.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.86</v>
+        <v>33.752</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.62</v>
+        <v>15.501</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.04</v>
+        <v>49.487</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.57</v>
+        <v>23.851</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.74</v>
+        <v>9.981</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6</v>
+        <v>15.136</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.5</v>
+        <v>16.473</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>17.17</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.82</v>
+        <v>4.948</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.52</v>
+        <v>15.414</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.99</v>
+        <v>21.544</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.07</v>
+        <v>13.131</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.2</v>
+        <v>3.479</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.76</v>
+        <v>2.254</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.05</v>
+        <v>227.272</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.66</v>
+        <v>42.867</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.94</v>
+        <v>14.228</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.86</v>
+        <v>28.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.39</v>
+        <v>14.504</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.4</v>
+        <v>2.984</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.91</v>
+        <v>24.958</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.13</v>
+        <v>12.568</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.79</v>
+        <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.63</v>
+        <v>13.349</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>16.948</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.05</v>
+        <v>43.884</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.62</v>
+        <v>7.874</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.68</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44797.55555555555</v>
+        <v>45147.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>5.765</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.15</v>
+        <v>3.621</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.38</v>
+        <v>1.453</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.77</v>
+        <v>12.255</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.4</v>
+        <v>9.608000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.18</v>
+        <v>4.538</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.03</v>
+        <v>21.534</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.42</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.55</v>
+        <v>2.841</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.04</v>
+        <v>4.094</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.74</v>
+        <v>4.884</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.91</v>
+        <v>4.979</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.47</v>
+        <v>1.457</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.77</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.32</v>
+        <v>6.255</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.16</v>
+        <v>4.138</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.08</v>
+        <v>1.471</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.745</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95.68000000000001</v>
+        <v>61.388</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.94</v>
+        <v>12.871</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.25</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.23</v>
+        <v>8.288</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.64</v>
+        <v>4.192</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.99</v>
+        <v>1.139</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.33</v>
+        <v>9.992000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.52</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.09</v>
+        <v>3.507</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.94</v>
+        <v>4.079</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.92</v>
+        <v>4.916</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.02</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.25</v>
+        <v>19.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.34</v>
+        <v>2.198</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.81</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44797.5625</v>
+        <v>45147.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.3</v>
+        <v>7.687</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.16</v>
+        <v>5.312</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.029</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.16</v>
+        <v>16.581</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.72</v>
+        <v>13.301</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>6.049</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.58</v>
+        <v>23.357</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.07</v>
+        <v>9.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.73</v>
+        <v>3.951</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>5.795</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.06</v>
+        <v>6.659</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.5</v>
+        <v>6.908</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.37</v>
+        <v>1.931</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.72</v>
+        <v>8.404</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.49</v>
+        <v>5.303</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.45</v>
+        <v>84.215</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.3</v>
+        <v>16.791</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.02</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.08</v>
+        <v>11.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>5.765</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.174</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.61</v>
+        <v>11.091</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.97</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.17</v>
+        <v>4.501</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.41</v>
+        <v>5.265</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.46</v>
+        <v>6.863</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.45</v>
+        <v>21.057</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.98</v>
+        <v>3.027</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.28</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44797.56944444445</v>
+        <v>45147.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.33</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.19</v>
+        <v>2.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.9</v>
+        <v>15.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>44.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.64</v>
+        <v>9.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.08</v>
+        <v>6.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>3.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.98</v>
+        <v>7.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.43</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.44</v>
+        <v>3.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.01</v>
+        <v>13.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44797.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.6</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_466.xlsx
+++ b/DATA_goal/Junction_Flooding_466.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45147.50694444445</v>
+        <v>44797.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.697</v>
+        <v>9.173</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.276</v>
+        <v>6.534</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.055</v>
+        <v>2.853</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.787</v>
+        <v>20.581</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33.752</v>
+        <v>14.857</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.501</v>
+        <v>6.617</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>49.487</v>
+        <v>20.037</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.851</v>
+        <v>11.575</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.981</v>
+        <v>4.738</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.136</v>
+        <v>6.004</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.473</v>
+        <v>8.497</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.17</v>
+        <v>8.644</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.948</v>
+        <v>2.821</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.414</v>
+        <v>7.519</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.544</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.131</v>
+        <v>7.075</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.479</v>
+        <v>2.196</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.254</v>
+        <v>0.759</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>227.272</v>
+        <v>107.045</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.867</v>
+        <v>20.658</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.228</v>
+        <v>6.941</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>28.315</v>
+        <v>12.856</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.504</v>
+        <v>7.392</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.984</v>
+        <v>1.396</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.958</v>
+        <v>11.913</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.568</v>
+        <v>6.131</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.39</v>
+        <v>5.786</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.349</v>
+        <v>6.628</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.948</v>
+        <v>8.785</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.456</v>
+        <v>2.215</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>43.884</v>
+        <v>18.053</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.874</v>
+        <v>3.621</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.788</v>
+        <v>8.676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45147.51388888889</v>
+        <v>44797.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.765</v>
+        <v>8.385</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.621</v>
+        <v>6.151</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.453</v>
+        <v>1.384</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>12.255</v>
+        <v>18.773</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.608000000000001</v>
+        <v>14.404</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.538</v>
+        <v>6.176</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>21.534</v>
+        <v>25.029</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.981</v>
+        <v>10.416</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.841</v>
+        <v>4.554</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.094</v>
+        <v>6.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.884</v>
+        <v>7.736</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.979</v>
+        <v>7.914</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.457</v>
+        <v>2.467</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.512</v>
+        <v>6.767</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.255</v>
+        <v>9.317</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.138</v>
+        <v>6.158</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.471</v>
+        <v>1.077</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.745</v>
+        <v>0.438</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>61.388</v>
+        <v>95.675</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.871</v>
+        <v>18.942</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.164</v>
+        <v>6.247</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.288</v>
+        <v>12.234</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.192</v>
+        <v>6.638</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.139</v>
+        <v>0.993</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.992000000000001</v>
+        <v>13.333</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.678</v>
+        <v>5.518</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.507</v>
+        <v>5.09</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.079</v>
+        <v>5.941</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.916</v>
+        <v>7.923</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>1.023</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.943</v>
+        <v>23.248</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.198</v>
+        <v>3.339</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.208</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45147.52083333334</v>
+        <v>44797.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.687</v>
+        <v>12.303</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.312</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.029</v>
+        <v>1.121</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.581</v>
+        <v>27.161</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.301</v>
+        <v>21.721</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.049</v>
+        <v>9.355</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.357</v>
+        <v>36.582</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.308</v>
+        <v>15.074</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.951</v>
+        <v>6.73</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.795</v>
+        <v>9.462999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.659</v>
+        <v>11.059</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.908</v>
+        <v>11.501</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.931</v>
+        <v>3.369</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.015</v>
+        <v>9.775</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.404</v>
+        <v>13.716</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.303</v>
+        <v>8.491</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.981</v>
+        <v>0.79</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.459</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.215</v>
+        <v>141.45</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.791</v>
+        <v>27.298</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.552</v>
+        <v>9.023</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.02</v>
+        <v>18.08</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.765</v>
+        <v>9.622999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.174</v>
+        <v>1.329</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.091</v>
+        <v>18.608</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.904</v>
+        <v>7.97</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.501</v>
+        <v>7.171</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.265</v>
+        <v>8.411</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.863</v>
+        <v>11.457</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.671</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.057</v>
+        <v>33.453</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.027</v>
+        <v>4.979</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.942</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45147.52777777778</v>
+        <v>44797.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.32</v>
+        <v>0.334</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.91</v>
+        <v>0.191</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.534</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.32</v>
+        <v>0.957</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.37</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.1</v>
+        <v>7.901</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>0.535</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.21</v>
+        <v>0.357</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.15</v>
+        <v>0.185</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.75</v>
+        <v>0.43</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.87</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>0.376</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.73</v>
+        <v>0.599</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.06</v>
+        <v>0.545</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.531</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.049</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.19</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.58</v>
+        <v>1.637</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.12</v>
+        <v>0.347</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.24</v>
+        <v>1.077</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.23</v>
+        <v>0.508</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.077</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.05</v>
+        <v>3.977</v>
       </c>
       <c r="AA5" s="4" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>8.013</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44797.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>2.76</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.91</v>
+      <c r="C6" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>27.39</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_466.xlsx
+++ b/DATA_goal/Junction_Flooding_466.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44797.54861111111</v>
+        <v>45147.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.173</v>
+        <v>19.697</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.534</v>
+        <v>13.276</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.853</v>
+        <v>4.055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>20.581</v>
+        <v>41.787</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.857</v>
+        <v>33.752</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>6.617</v>
+        <v>15.501</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>20.037</v>
+        <v>49.487</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>11.575</v>
+        <v>23.851</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.738</v>
+        <v>9.981</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.004</v>
+        <v>15.136</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.497</v>
+        <v>16.473</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.644</v>
+        <v>17.17</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.821</v>
+        <v>4.948</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.519</v>
+        <v>15.414</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.989000000000001</v>
+        <v>21.544</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.075</v>
+        <v>13.131</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.196</v>
+        <v>3.479</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.759</v>
+        <v>2.254</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>107.045</v>
+        <v>227.272</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>20.658</v>
+        <v>42.867</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.941</v>
+        <v>14.228</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.856</v>
+        <v>28.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.392</v>
+        <v>14.504</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.396</v>
+        <v>2.984</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.913</v>
+        <v>24.958</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.131</v>
+        <v>12.568</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.786</v>
+        <v>11.39</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.628</v>
+        <v>13.349</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.785</v>
+        <v>16.948</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.215</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>18.053</v>
+        <v>43.884</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.621</v>
+        <v>7.874</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.676</v>
+        <v>17.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44797.55555555555</v>
+        <v>45147.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.385</v>
+        <v>5.765</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.151</v>
+        <v>3.621</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.384</v>
+        <v>1.453</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.773</v>
+        <v>12.255</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>14.404</v>
+        <v>9.608000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.176</v>
+        <v>4.538</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.029</v>
+        <v>21.534</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.416</v>
+        <v>6.981</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.554</v>
+        <v>2.841</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.04</v>
+        <v>4.094</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.736</v>
+        <v>4.884</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.914</v>
+        <v>4.979</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.467</v>
+        <v>1.457</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.767</v>
+        <v>4.512</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.317</v>
+        <v>6.255</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.158</v>
+        <v>4.138</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.077</v>
+        <v>1.471</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.438</v>
+        <v>0.745</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>95.675</v>
+        <v>61.388</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.942</v>
+        <v>12.871</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.247</v>
+        <v>4.164</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.234</v>
+        <v>8.288</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.638</v>
+        <v>4.192</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.993</v>
+        <v>1.139</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.333</v>
+        <v>9.992000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.518</v>
+        <v>3.678</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.09</v>
+        <v>3.507</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.941</v>
+        <v>4.079</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.923</v>
+        <v>4.916</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.023</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.248</v>
+        <v>19.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.339</v>
+        <v>2.198</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.81</v>
+        <v>5.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44797.5625</v>
+        <v>45147.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.303</v>
+        <v>7.687</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.154999999999999</v>
+        <v>5.312</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.121</v>
+        <v>1.029</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.161</v>
+        <v>16.581</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>21.721</v>
+        <v>13.301</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.355</v>
+        <v>6.049</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.582</v>
+        <v>23.357</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.074</v>
+        <v>9.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.73</v>
+        <v>3.951</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.462999999999999</v>
+        <v>5.795</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.059</v>
+        <v>6.659</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.501</v>
+        <v>6.908</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.369</v>
+        <v>1.931</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.775</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.716</v>
+        <v>8.404</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.491</v>
+        <v>5.303</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.981</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.459</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>141.45</v>
+        <v>84.215</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.298</v>
+        <v>16.791</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.023</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.08</v>
+        <v>11.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.622999999999999</v>
+        <v>5.765</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.329</v>
+        <v>1.174</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.608</v>
+        <v>11.091</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.97</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.171</v>
+        <v>4.501</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.411</v>
+        <v>5.265</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.457</v>
+        <v>6.863</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.671</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.453</v>
+        <v>21.057</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.979</v>
+        <v>3.027</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.28</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44797.56944444445</v>
+        <v>45147.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.334</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.191</v>
+        <v>2.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.534</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.957</v>
+        <v>9.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.901</v>
+        <v>15.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.535</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.357</v>
+        <v>2.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.185</v>
+        <v>3.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.43</v>
+        <v>3.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.376</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.599</v>
+        <v>4.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.545</v>
+        <v>3.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.531</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.049</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>44.19</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.637</v>
+        <v>9.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.347</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.077</v>
+        <v>6.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.508</v>
+        <v>3.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.077</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.977</v>
+        <v>7.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.307</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.434</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.436</v>
+        <v>3.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.487</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.013</v>
+        <v>13.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.064</v>
+        <v>1.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44797.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.6</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
